--- a/scripts/Report_Templates/Summaries/TPS_Comp_Summary_Template.xlsx
+++ b/scripts/Report_Templates/Summaries/TPS_Comp_Summary_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zelda\Desktop\Work\ISIAL\SalesReportingAutomation\SalesReportAutomationProduct\scripts\Report_Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zelda\Desktop\Work\ISIAL\SalesReportingAutomation\SalesReportAutomationProduct\scripts\Report_Templates\Summaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C697AB2-9CB7-4BAC-B6AD-B0692940209C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD021426-6D46-45F4-962A-1FDEC10B7C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-10910" windowWidth="19420" windowHeight="10300" tabRatio="732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1515" yWindow="-19110" windowWidth="19125" windowHeight="11235" tabRatio="732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comp. Summary" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <author>Renee Morris</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{228ADBE6-9A97-49BB-9CBC-12B0C30068A6}">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{F8C0CBF1-C57A-4046-972B-A30E068DEBDC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adjusted re Bar ONLY</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{C3B7DAA5-61E7-4DA7-95ED-B99C0BB4697F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Adjusted re Bar ONLY</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{6E235622-0ABE-4676-9F84-5C0D2CF6FDF4}">
       <text>
         <r>
           <rPr>
@@ -94,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Total Covers</t>
   </si>
@@ -189,10 +237,22 @@
     <t>Alcohol</t>
   </si>
   <si>
-    <t>Non Alcohol</t>
-  </si>
-  <si>
     <t>Water</t>
+  </si>
+  <si>
+    <t>Total Covers (Adj.)</t>
+  </si>
+  <si>
+    <t>Non-Alcohol</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Total covers</t>
   </si>
 </sst>
 </file>
@@ -206,12 +266,26 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -292,7 +366,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,8 +403,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -345,19 +425,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -384,119 +451,87 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -956,14 +991,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="27.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="28.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="12.1796875" customWidth="1"/>
     <col min="7" max="7" width="13.1796875" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
@@ -974,227 +1009,229 @@
     <col min="13" max="19" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="10"/>
-      <c r="C2" s="45" t="s">
+    <row r="1" spans="1:10" ht="36.75" customHeight="1"/>
+    <row r="2" spans="1:10" ht="18.5">
+      <c r="A2" s="8"/>
+      <c r="C2" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-    </row>
-    <row r="3" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-    </row>
-    <row r="4" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="11"/>
-    </row>
-    <row r="5" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+    </row>
+    <row r="3" spans="1:10" ht="19" thickBot="1">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+    </row>
+    <row r="4" spans="1:10" ht="7.5" customHeight="1">
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.5">
       <c r="A5" s="1"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.5">
+      <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-    </row>
-    <row r="7" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+    </row>
+    <row r="7" spans="1:10" ht="14.5">
+      <c r="A7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+    </row>
+    <row r="8" spans="1:10" ht="14.5">
+      <c r="A8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-    </row>
-    <row r="8" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.5">
+      <c r="A9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-    </row>
-    <row r="9" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+    </row>
+    <row r="10" spans="1:10" ht="14.5">
+      <c r="A10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-    </row>
-    <row r="10" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.5">
+      <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-    </row>
-    <row r="11" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.5">
+      <c r="A12" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-    </row>
-    <row r="12" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.5">
+      <c r="A13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-    </row>
-    <row r="13" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-    </row>
-    <row r="14" spans="1:10" ht="14.5" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="19" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+    </row>
+    <row r="14" spans="1:10" ht="14.5" outlineLevel="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+    </row>
+    <row r="15" spans="1:10" ht="14.5" outlineLevel="1">
+      <c r="A15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-    </row>
-    <row r="15" spans="1:10" ht="14.5" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="19" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+    </row>
+    <row r="16" spans="1:10" ht="14.5">
+      <c r="A16" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-    </row>
-    <row r="16" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="19" t="s">
+      <c r="B16" s="33"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.5">
+      <c r="A17" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-    </row>
-    <row r="17" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="20" t="s">
+      <c r="B17" s="33"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.5">
+      <c r="A18" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-    </row>
-    <row r="18" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="21" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.5">
+      <c r="A19" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-    </row>
-    <row r="19" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="14" t="s">
+      <c r="B19" s="33"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.5">
+      <c r="A20" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-    </row>
-    <row r="20" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-      <c r="B20" s="22"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1203,115 +1240,113 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:9" ht="14.5">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.5">
+      <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-    </row>
-    <row r="22" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.5">
+      <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-    </row>
-    <row r="23" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.5">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.5">
+      <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-    </row>
-    <row r="24" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-    </row>
-    <row r="25" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.5" outlineLevel="1">
+      <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-    </row>
-    <row r="26" spans="1:9" ht="14.5" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27" spans="1:9" ht="14.5" outlineLevel="1">
+      <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-    </row>
-    <row r="27" spans="1:9" ht="14.5" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+    </row>
+    <row r="28" spans="1:9" ht="14.5">
+      <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-    </row>
-    <row r="28" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="31"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29" spans="1:9" ht="14.5">
+      <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-    </row>
-    <row r="29" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="22"/>
+      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1320,63 +1355,59 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-    </row>
-    <row r="31" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-    </row>
-    <row r="32" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-    </row>
-    <row r="33" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-    </row>
-    <row r="34" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="25"/>
+    <row r="30" spans="1:9" ht="14.5">
+      <c r="A30" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+    </row>
+    <row r="31" spans="1:9" ht="14.5">
+      <c r="A31" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+    </row>
+    <row r="32" spans="1:9" ht="14.5">
+      <c r="A32" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="31"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+    </row>
+    <row r="33" spans="1:19" ht="14.5">
+      <c r="B33" s="1"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+    </row>
+    <row r="34" spans="1:19" ht="14.5">
+      <c r="A34" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="30"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1385,11 +1416,11 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" ht="14.5">
       <c r="A35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="25"/>
+        <v>5</v>
+      </c>
+      <c r="B35" s="30"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1398,24 +1429,24 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-    </row>
-    <row r="37" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="25"/>
+    <row r="36" spans="1:19" ht="14.5">
+      <c r="A36" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="30"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+    </row>
+    <row r="37" spans="1:19" ht="14.5">
+      <c r="A37" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="30"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1424,24 +1455,24 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-    </row>
-    <row r="39" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="25"/>
+    <row r="38" spans="1:19" ht="14.5">
+      <c r="A38" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+    </row>
+    <row r="39" spans="1:19" ht="14.5">
+      <c r="A39" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="1"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -1450,61 +1481,78 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="26" t="s">
+    <row r="40" spans="1:19" ht="14.5">
+      <c r="A40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="30"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+    </row>
+    <row r="41" spans="1:19" ht="14.5">
+      <c r="A41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:19" ht="14.5">
+      <c r="A42" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="30"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:19" ht="14.5">
+      <c r="A43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="1:19" ht="14.5">
+      <c r="A44" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="30"/>
+      <c r="K44" s="1"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+    </row>
+    <row r="45" spans="1:19" ht="14.5">
+      <c r="A45" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="14.5">
+      <c r="A46" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-    </row>
-    <row r="41" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="1"/>
-      <c r="B41" s="31"/>
-    </row>
-    <row r="42" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5"/>
-      <c r="K43" s="4"/>
-    </row>
-    <row r="44" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="1"/>
-      <c r="B44" s="6"/>
-      <c r="K44" s="1"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="9"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B47" s="7"/>
+    <row r="47" spans="1:19">
+      <c r="B47" s="5"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B48" s="7"/>
+    <row r="48" spans="1:19">
+      <c r="B48" s="5"/>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49" s="7"/>
+    <row r="49" spans="2:3">
+      <c r="B49" s="5"/>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="8"/>
+    <row r="50" spans="2:3">
+      <c r="B50" s="6"/>
       <c r="C50" s="3"/>
     </row>
   </sheetData>

--- a/scripts/Report_Templates/Summaries/TPS_Comp_Summary_Template.xlsx
+++ b/scripts/Report_Templates/Summaries/TPS_Comp_Summary_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zelda\Desktop\Work\ISIAL\SalesReportingAutomation\SalesReportAutomationProduct\scripts\Report_Templates\Summaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD021426-6D46-45F4-962A-1FDEC10B7C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F0510A-125C-49C7-943E-5DB9F9277321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1515" yWindow="-19110" windowWidth="19125" windowHeight="11235" tabRatio="732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comp. Summary" sheetId="10" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Total Covers</t>
   </si>
@@ -234,18 +234,9 @@
     <t>LUNCH &amp; DINNER SALES REPORT (Rolling N-Week)</t>
   </si>
   <si>
-    <t>Alcohol</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
     <t>Total Covers (Adj.)</t>
   </si>
   <si>
-    <t>Non-Alcohol</t>
-  </si>
-  <si>
     <t>Budget</t>
   </si>
   <si>
@@ -253,6 +244,9 @@
   </si>
   <si>
     <t>Total covers</t>
+  </si>
+  <si>
+    <t>Bar</t>
   </si>
 </sst>
 </file>
@@ -266,7 +260,7 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,14 +518,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -989,13 +983,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:S50"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.08984375" bestFit="1" customWidth="1"/>
@@ -1009,34 +1003,34 @@
     <col min="13" max="19" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36.75" customHeight="1"/>
-    <row r="2" spans="1:10" ht="18.5">
+    <row r="1" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="8"/>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-    </row>
-    <row r="3" spans="1:10" ht="19" thickBot="1">
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-    </row>
-    <row r="4" spans="1:10" ht="7.5" customHeight="1">
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+    </row>
+    <row r="3" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+    </row>
+    <row r="4" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:10" ht="14.5">
+    <row r="5" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="11"/>
       <c r="C5" s="10"/>
@@ -1047,7 +1041,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:10" ht="14.5">
+    <row r="6" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
@@ -1060,9 +1054,9 @@
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
     </row>
-    <row r="7" spans="1:10" ht="14.5">
+    <row r="7" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="31"/>
       <c r="C7" s="25"/>
@@ -1073,7 +1067,7 @@
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
     </row>
-    <row r="8" spans="1:10" ht="14.5">
+    <row r="8" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>24</v>
       </c>
@@ -1086,7 +1080,7 @@
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
     </row>
-    <row r="9" spans="1:10" ht="14.5">
+    <row r="9" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>25</v>
       </c>
@@ -1099,7 +1093,7 @@
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
     </row>
-    <row r="10" spans="1:10" ht="14.5">
+    <row r="10" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>28</v>
       </c>
@@ -1112,7 +1106,7 @@
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
     </row>
-    <row r="11" spans="1:10" ht="14.5">
+    <row r="11" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
@@ -1125,7 +1119,7 @@
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
     </row>
-    <row r="12" spans="1:10" ht="14.5">
+    <row r="12" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>1</v>
       </c>
@@ -1138,7 +1132,7 @@
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
     </row>
-    <row r="13" spans="1:10" ht="14.5">
+    <row r="13" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
         <v>2</v>
       </c>
@@ -1151,7 +1145,7 @@
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
     </row>
-    <row r="14" spans="1:10" ht="14.5" outlineLevel="1">
+    <row r="14" spans="1:10" ht="14.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="28"/>
@@ -1162,7 +1156,7 @@
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
     </row>
-    <row r="15" spans="1:10" ht="14.5" outlineLevel="1">
+    <row r="15" spans="1:10" ht="14.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
         <v>26</v>
       </c>
@@ -1175,7 +1169,7 @@
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
     </row>
-    <row r="16" spans="1:10" ht="14.5">
+    <row r="16" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
         <v>27</v>
       </c>
@@ -1188,7 +1182,7 @@
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
     </row>
-    <row r="17" spans="1:9" ht="14.5">
+    <row r="17" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
         <v>14</v>
       </c>
@@ -1201,7 +1195,7 @@
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
     </row>
-    <row r="18" spans="1:9" ht="14.5">
+    <row r="18" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
         <v>3</v>
       </c>
@@ -1214,7 +1208,7 @@
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
     </row>
-    <row r="19" spans="1:9" ht="14.5">
+    <row r="19" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="19" t="s">
         <v>4</v>
       </c>
@@ -1227,7 +1221,7 @@
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
     </row>
-    <row r="20" spans="1:9" ht="14.5">
+    <row r="20" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>5</v>
       </c>
@@ -1240,7 +1234,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" ht="14.5">
+    <row r="21" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="20"/>
@@ -1251,7 +1245,7 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:9" ht="14.5">
+    <row r="22" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -1264,9 +1258,9 @@
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="1:9" ht="14.5">
+    <row r="23" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="20"/>
@@ -1277,9 +1271,9 @@
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" ht="14.5">
+    <row r="24" spans="1:9" ht="14.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="20"/>
@@ -1290,9 +1284,9 @@
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:9" ht="14.5">
+    <row r="25" spans="1:9" ht="14.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="20"/>
@@ -1303,11 +1297,11 @@
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:9" ht="14.5" outlineLevel="1">
+    <row r="26" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B26" s="31"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
@@ -1316,50 +1310,49 @@
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:9" ht="14.5" outlineLevel="1">
+    <row r="27" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-    </row>
-    <row r="28" spans="1:9" ht="14.5">
-      <c r="A28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-    </row>
-    <row r="29" spans="1:9" ht="14.5">
-      <c r="A29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" ht="14.5">
-      <c r="A30" s="12" t="s">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+    </row>
+    <row r="29" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+    </row>
+    <row r="30" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="31"/>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
@@ -1368,10 +1361,8 @@
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
     </row>
-    <row r="31" spans="1:9" ht="14.5">
-      <c r="A31" s="16" t="s">
-        <v>34</v>
-      </c>
+    <row r="31" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B31" s="1"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
@@ -1380,45 +1371,48 @@
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
     </row>
-    <row r="32" spans="1:9" ht="14.5">
-      <c r="A32" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-    </row>
-    <row r="33" spans="1:19" ht="14.5">
-      <c r="B33" s="1"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-    </row>
-    <row r="34" spans="1:19" ht="14.5">
-      <c r="A34" s="12" t="s">
-        <v>36</v>
+    <row r="32" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="30"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="30"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="35" t="s">
+        <v>16</v>
       </c>
       <c r="B34" s="30"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:19" ht="14.5">
-      <c r="A35" s="1" t="s">
-        <v>5</v>
+      <c r="C34" s="23"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+    </row>
+    <row r="35" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="35" t="s">
+        <v>17</v>
       </c>
       <c r="B35" s="30"/>
       <c r="C35" s="2"/>
@@ -1429,12 +1423,12 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:19" ht="14.5">
-      <c r="A36" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="23"/>
+    <row r="36" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
@@ -1442,11 +1436,11 @@
       <c r="H36" s="22"/>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:19" ht="14.5">
-      <c r="A37" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="30"/>
+    <row r="37" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="1"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1455,11 +1449,11 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:19" ht="14.5">
-      <c r="A38" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="1"/>
+    <row r="38" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="30"/>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
@@ -1468,92 +1462,66 @@
       <c r="H38" s="22"/>
       <c r="I38" s="22"/>
     </row>
-    <row r="39" spans="1:19" ht="14.5">
-      <c r="A39" s="37" t="s">
-        <v>19</v>
+    <row r="39" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:19" ht="14.5">
-      <c r="A40" s="1" t="s">
-        <v>15</v>
+    </row>
+    <row r="40" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="35" t="s">
+        <v>10</v>
       </c>
       <c r="B40" s="30"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-    </row>
-    <row r="41" spans="1:19" ht="14.5">
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:19" ht="14.5">
-      <c r="A42" s="37" t="s">
-        <v>10</v>
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="35" t="s">
+        <v>22</v>
       </c>
       <c r="B42" s="30"/>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:19" ht="14.5">
+      <c r="K42" s="1"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+    </row>
+    <row r="43" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="K43" s="4"/>
-    </row>
-    <row r="44" spans="1:19" ht="14.5">
-      <c r="A44" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44" s="30"/>
-      <c r="K44" s="1"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-    </row>
-    <row r="45" spans="1:19" ht="14.5">
-      <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="14.5">
-      <c r="A46" s="37" t="s">
+    <row r="44" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="35" t="s">
         <v>23</v>
       </c>
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B45" s="5"/>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B46" s="5"/>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B47" s="5"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:19">
-      <c r="B48" s="5"/>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B48" s="6"/>
       <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="5"/>
-      <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="6"/>
-      <c r="C50" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
